--- a/results/compareUCRdatasetsEG-CBF.xlsx
+++ b/results/compareUCRdatasetsEG-CBF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adzie\code\time-series-machine-leaning\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B19B89-C707-4D61-9617-4AB8C1C8FD48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA9786C-C3DA-485E-931A-C0C733CC7DE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="8412" xr2:uid="{22E359C7-C2FC-4D4F-B718-8B5D5D5AAAC0}"/>
   </bookViews>
